--- a/mejores_resultados.xlsx
+++ b/mejores_resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,41 @@
         <v>0.8596491228070176</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>500</v>
+      </c>
+      <c r="B4" t="n">
+        <v>300</v>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[ 2.81672028e-02 -6.64177805e-02  1.21331494e-01  3.18853641e-01
+  5.14147939e-01  1.84955188e-01  9.82713578e-01 -2.85932855e-02
+  8.53394519e-01  3.25549233e-01 -9.41669520e-02  2.18408589e-01
+  7.43831425e-02 -1.93778443e-01 -2.83944315e-01  2.26082456e-04
+  3.19551617e-01 -1.51715657e-01]</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9576059850374065</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9306930693069307</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9251101321585903</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8771929824561403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
